--- a/Results/Categorization/lda2vec-partial-ner.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner.xlsx
@@ -4027,334 +4027,334 @@
     <t>AMBIENCE|SERVICE|SERVICE</t>
   </si>
   <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
+    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|FOOD|FOOD|PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE|FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE|FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|SERVICE|PRICES</t>
@@ -5955,7 +5955,7 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G8" t="s">
         <v>1460</v>
@@ -5981,7 +5981,7 @@
         <v>1276</v>
       </c>
       <c r="F9" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G9" t="s">
         <v>1461</v>
@@ -6007,7 +6007,7 @@
         <v>1279</v>
       </c>
       <c r="F10" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G10" t="s">
         <v>1462</v>
@@ -6033,7 +6033,7 @@
         <v>1280</v>
       </c>
       <c r="F11" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G11" t="s">
         <v>1463</v>
@@ -6163,7 +6163,7 @@
         <v>1282</v>
       </c>
       <c r="F16" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G16" t="s">
         <v>1466</v>
@@ -6189,7 +6189,7 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G17" t="s">
         <v>1467</v>
@@ -6241,7 +6241,7 @@
         <v>1275</v>
       </c>
       <c r="F19" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G19" t="s">
         <v>1469</v>
@@ -6293,7 +6293,7 @@
         <v>1275</v>
       </c>
       <c r="F21" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G21" t="s">
         <v>1470</v>
@@ -6397,7 +6397,7 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G25" t="s">
         <v>1471</v>
@@ -6475,7 +6475,7 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G28" t="s">
         <v>1472</v>
@@ -6553,7 +6553,7 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G31" t="s">
         <v>1475</v>
@@ -6579,7 +6579,7 @@
         <v>1283</v>
       </c>
       <c r="F32" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G32" t="s">
         <v>1476</v>
@@ -6605,7 +6605,7 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G33" t="s">
         <v>1477</v>
@@ -6683,7 +6683,7 @@
         <v>1283</v>
       </c>
       <c r="F36" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G36" t="s">
         <v>1480</v>
@@ -6735,7 +6735,7 @@
         <v>1275</v>
       </c>
       <c r="F38" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G38" t="s">
         <v>1482</v>
@@ -6813,7 +6813,7 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G41" t="s">
         <v>1484</v>
@@ -6839,7 +6839,7 @@
         <v>1284</v>
       </c>
       <c r="F42" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G42" t="s">
         <v>1485</v>
@@ -6865,7 +6865,7 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G43" t="s">
         <v>1486</v>
@@ -6891,7 +6891,7 @@
         <v>1277</v>
       </c>
       <c r="F44" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G44" t="s">
         <v>1487</v>
@@ -7047,7 +7047,7 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G50" t="s">
         <v>1490</v>
@@ -7073,7 +7073,7 @@
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G51" t="s">
         <v>1491</v>
@@ -7151,7 +7151,7 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G54" t="s">
         <v>1494</v>
@@ -7229,7 +7229,7 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G57" t="s">
         <v>1497</v>
@@ -7255,7 +7255,7 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G58" t="s">
         <v>1498</v>
@@ -7281,7 +7281,7 @@
         <v>1275</v>
       </c>
       <c r="F59" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G59" t="s">
         <v>1499</v>
@@ -7307,7 +7307,7 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G60" t="s">
         <v>1500</v>
@@ -7333,7 +7333,7 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G61" t="s">
         <v>1501</v>
@@ -7411,7 +7411,7 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G64" t="s">
         <v>1503</v>
@@ -7437,7 +7437,7 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G65" t="s">
         <v>1504</v>
@@ -7463,7 +7463,7 @@
         <v>1277</v>
       </c>
       <c r="F66" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="G66" t="s">
         <v>1505</v>
@@ -7489,7 +7489,7 @@
         <v>1275</v>
       </c>
       <c r="F67" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G67" t="s">
         <v>1469</v>
@@ -7515,7 +7515,7 @@
         <v>1275</v>
       </c>
       <c r="F68" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G68" t="s">
         <v>1506</v>
@@ -7671,7 +7671,7 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G74" t="s">
         <v>1509</v>
@@ -7723,7 +7723,7 @@
         <v>1283</v>
       </c>
       <c r="F76" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G76" t="s">
         <v>1511</v>
@@ -7827,7 +7827,7 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
       <c r="G80" t="s">
         <v>1513</v>
@@ -7905,7 +7905,7 @@
         <v>1277</v>
       </c>
       <c r="F83" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G83" t="s">
         <v>1516</v>
@@ -8087,7 +8087,7 @@
         <v>1283</v>
       </c>
       <c r="F90" t="s">
-        <v>1364</v>
+        <v>1372</v>
       </c>
       <c r="G90" t="s">
         <v>1521</v>
@@ -8113,7 +8113,7 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G91" t="s">
         <v>1522</v>
@@ -8165,7 +8165,7 @@
         <v>1285</v>
       </c>
       <c r="F93" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G93" t="s">
         <v>1523</v>
@@ -8191,7 +8191,7 @@
         <v>1298</v>
       </c>
       <c r="F94" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G94" t="s">
         <v>1524</v>
@@ -8243,7 +8243,7 @@
         <v>1288</v>
       </c>
       <c r="F96" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="G96" t="s">
         <v>1526</v>
@@ -8269,7 +8269,7 @@
         <v>1299</v>
       </c>
       <c r="F97" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G97" t="s">
         <v>1527</v>
@@ -8347,7 +8347,7 @@
         <v>1275</v>
       </c>
       <c r="F100" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G100" t="s">
         <v>1530</v>
@@ -8399,7 +8399,7 @@
         <v>1278</v>
       </c>
       <c r="F102" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G102" t="s">
         <v>1532</v>
@@ -8451,7 +8451,7 @@
         <v>1275</v>
       </c>
       <c r="F104" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G104" t="s">
         <v>1533</v>
@@ -8477,7 +8477,7 @@
         <v>1284</v>
       </c>
       <c r="F105" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
       <c r="G105" t="s">
         <v>1534</v>
@@ -8581,7 +8581,7 @@
         <v>1285</v>
       </c>
       <c r="F109" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G109" t="s">
         <v>1536</v>
@@ -8607,7 +8607,7 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1364</v>
+        <v>1372</v>
       </c>
       <c r="G110" t="s">
         <v>1537</v>
@@ -8633,7 +8633,7 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G111" t="s">
         <v>1538</v>
@@ -8659,7 +8659,7 @@
         <v>1297</v>
       </c>
       <c r="F112" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G112" t="s">
         <v>1464</v>
@@ -8685,7 +8685,7 @@
         <v>1275</v>
       </c>
       <c r="F113" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G113" t="s">
         <v>1539</v>
@@ -8815,7 +8815,7 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G118" t="s">
         <v>1541</v>
@@ -8841,7 +8841,7 @@
         <v>1276</v>
       </c>
       <c r="F119" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G119" t="s">
         <v>1542</v>
@@ -8867,7 +8867,7 @@
         <v>1277</v>
       </c>
       <c r="F120" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G120" t="s">
         <v>1543</v>
@@ -8893,7 +8893,7 @@
         <v>1295</v>
       </c>
       <c r="F121" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G121" t="s">
         <v>1544</v>
@@ -8919,7 +8919,7 @@
         <v>1277</v>
       </c>
       <c r="F122" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G122" t="s">
         <v>1545</v>
@@ -9153,7 +9153,7 @@
         <v>1275</v>
       </c>
       <c r="F131" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G131" t="s">
         <v>1548</v>
@@ -9179,7 +9179,7 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G132" t="s">
         <v>1549</v>
@@ -9205,7 +9205,7 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G133" t="s">
         <v>1550</v>
@@ -9231,7 +9231,7 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1378</v>
+        <v>1339</v>
       </c>
       <c r="G134" t="s">
         <v>1551</v>
@@ -9309,7 +9309,7 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G137" t="s">
         <v>1554</v>
@@ -9335,7 +9335,7 @@
         <v>1297</v>
       </c>
       <c r="F138" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G138" t="s">
         <v>1555</v>
@@ -9361,7 +9361,7 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G139" t="s">
         <v>1556</v>
@@ -9413,7 +9413,7 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G141" t="s">
         <v>972</v>
@@ -9439,7 +9439,7 @@
         <v>1276</v>
       </c>
       <c r="F142" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G142" t="s">
         <v>1557</v>
@@ -9465,7 +9465,7 @@
         <v>1275</v>
       </c>
       <c r="F143" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
       <c r="G143" t="s">
         <v>1558</v>
@@ -9491,7 +9491,7 @@
         <v>1297</v>
       </c>
       <c r="F144" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="G144" t="s">
         <v>1559</v>
@@ -9517,7 +9517,7 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G145" t="s">
         <v>1560</v>
@@ -9569,7 +9569,7 @@
         <v>1277</v>
       </c>
       <c r="F147" t="s">
-        <v>1351</v>
+        <v>1382</v>
       </c>
       <c r="G147" t="s">
         <v>1561</v>
@@ -9595,7 +9595,7 @@
         <v>1283</v>
       </c>
       <c r="F148" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G148" t="s">
         <v>1562</v>
@@ -9673,7 +9673,7 @@
         <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G151" t="s">
         <v>1564</v>
@@ -9751,7 +9751,7 @@
         <v>1276</v>
       </c>
       <c r="F154" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G154" t="s">
         <v>1566</v>
@@ -9777,7 +9777,7 @@
         <v>1275</v>
       </c>
       <c r="F155" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G155" t="s">
         <v>1567</v>
@@ -9855,7 +9855,7 @@
         <v>1303</v>
       </c>
       <c r="F158" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G158" t="s">
         <v>1569</v>
@@ -10011,7 +10011,7 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1368</v>
+        <v>1381</v>
       </c>
       <c r="G164" t="s">
         <v>1573</v>
@@ -10037,7 +10037,7 @@
         <v>1284</v>
       </c>
       <c r="F165" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G165" t="s">
         <v>1574</v>
@@ -10141,7 +10141,7 @@
         <v>1278</v>
       </c>
       <c r="F169" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G169" t="s">
         <v>1576</v>
@@ -10167,7 +10167,7 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G170" t="s">
         <v>1577</v>
@@ -10193,7 +10193,7 @@
         <v>1277</v>
       </c>
       <c r="F171" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
       <c r="G171" t="s">
         <v>1578</v>
@@ -10245,7 +10245,7 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="G173" t="s">
         <v>1580</v>
@@ -10271,7 +10271,7 @@
         <v>1299</v>
       </c>
       <c r="F174" t="s">
-        <v>1387</v>
+        <v>1365</v>
       </c>
       <c r="G174" t="s">
         <v>1581</v>
@@ -10297,7 +10297,7 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G175" t="s">
         <v>1582</v>
@@ -10323,7 +10323,7 @@
         <v>1275</v>
       </c>
       <c r="F176" t="s">
-        <v>1338</v>
+        <v>1371</v>
       </c>
       <c r="G176" t="s">
         <v>1583</v>
@@ -10375,7 +10375,7 @@
         <v>1295</v>
       </c>
       <c r="F178" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G178" t="s">
         <v>1585</v>
@@ -10427,7 +10427,7 @@
         <v>1306</v>
       </c>
       <c r="F180" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G180" t="s">
         <v>1586</v>
@@ -10479,7 +10479,7 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G182" t="s">
         <v>1587</v>
@@ -10505,7 +10505,7 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G183" t="s">
         <v>1588</v>
@@ -10531,7 +10531,7 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G184" t="s">
         <v>1589</v>
@@ -10557,7 +10557,7 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G185" t="s">
         <v>1590</v>
@@ -10583,7 +10583,7 @@
         <v>1276</v>
       </c>
       <c r="F186" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
       <c r="G186" t="s">
         <v>1591</v>
@@ -10687,7 +10687,7 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G190" t="s">
         <v>1470</v>
@@ -10713,7 +10713,7 @@
         <v>1284</v>
       </c>
       <c r="F191" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G191" t="s">
         <v>1593</v>
@@ -10791,7 +10791,7 @@
         <v>1299</v>
       </c>
       <c r="F194" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G194" t="s">
         <v>1594</v>
@@ -10869,7 +10869,7 @@
         <v>1310</v>
       </c>
       <c r="F197" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G197" t="s">
         <v>1596</v>
@@ -10895,7 +10895,7 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G198" t="s">
         <v>1597</v>
@@ -10973,7 +10973,7 @@
         <v>1284</v>
       </c>
       <c r="F201" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G201" t="s">
         <v>1599</v>
@@ -11103,7 +11103,7 @@
         <v>1284</v>
       </c>
       <c r="F206" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G206" t="s">
         <v>1602</v>
@@ -11129,7 +11129,7 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G207" t="s">
         <v>1603</v>
@@ -11181,7 +11181,7 @@
         <v>1311</v>
       </c>
       <c r="F209" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G209" t="s">
         <v>1604</v>
@@ -11233,7 +11233,7 @@
         <v>1275</v>
       </c>
       <c r="F211" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G211" t="s">
         <v>1606</v>
@@ -11363,7 +11363,7 @@
         <v>1310</v>
       </c>
       <c r="F216" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G216" t="s">
         <v>1609</v>
@@ -11389,7 +11389,7 @@
         <v>1277</v>
       </c>
       <c r="F217" t="s">
-        <v>1364</v>
+        <v>1339</v>
       </c>
       <c r="G217" t="s">
         <v>1610</v>
@@ -11441,7 +11441,7 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1351</v>
+        <v>1382</v>
       </c>
       <c r="G219" t="s">
         <v>1611</v>
@@ -11467,7 +11467,7 @@
         <v>1277</v>
       </c>
       <c r="F220" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G220" t="s">
         <v>1612</v>
@@ -11493,7 +11493,7 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G221" t="s">
         <v>1613</v>
@@ -11545,7 +11545,7 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G223" t="s">
         <v>1614</v>
@@ -11597,7 +11597,7 @@
         <v>1275</v>
       </c>
       <c r="F225" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G225" t="s">
         <v>1615</v>
@@ -11623,7 +11623,7 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G226" t="s">
         <v>1616</v>
@@ -11649,7 +11649,7 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="G227" t="s">
         <v>1617</v>
@@ -11675,7 +11675,7 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G228" t="s">
         <v>1618</v>
@@ -11779,7 +11779,7 @@
         <v>1284</v>
       </c>
       <c r="F232" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G232" t="s">
         <v>1619</v>
@@ -11805,7 +11805,7 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G233" t="s">
         <v>1620</v>
@@ -11935,7 +11935,7 @@
         <v>1284</v>
       </c>
       <c r="F238" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G238" t="s">
         <v>1623</v>
@@ -11961,7 +11961,7 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G239" t="s">
         <v>1624</v>
@@ -11987,7 +11987,7 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G240" t="s">
         <v>1625</v>
@@ -12013,7 +12013,7 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1387</v>
+        <v>1365</v>
       </c>
       <c r="G241" t="s">
         <v>1626</v>
@@ -12039,7 +12039,7 @@
         <v>1315</v>
       </c>
       <c r="F242" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G242" t="s">
         <v>1627</v>
@@ -12117,7 +12117,7 @@
         <v>1316</v>
       </c>
       <c r="F245" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G245" t="s">
         <v>1628</v>
@@ -12169,7 +12169,7 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1406</v>
+        <v>1383</v>
       </c>
       <c r="G247" t="s">
         <v>1562</v>
@@ -12221,7 +12221,7 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1345</v>
+        <v>1365</v>
       </c>
       <c r="G249" t="s">
         <v>1630</v>
@@ -12403,7 +12403,7 @@
         <v>1299</v>
       </c>
       <c r="F256" t="s">
-        <v>1410</v>
+        <v>1342</v>
       </c>
       <c r="G256" t="s">
         <v>1634</v>
@@ -12429,7 +12429,7 @@
         <v>1275</v>
       </c>
       <c r="F257" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G257" t="s">
         <v>1635</v>
@@ -12455,7 +12455,7 @@
         <v>1275</v>
       </c>
       <c r="F258" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G258" t="s">
         <v>1636</v>
@@ -12559,7 +12559,7 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G262" t="s">
         <v>1460</v>
@@ -12663,7 +12663,7 @@
         <v>1284</v>
       </c>
       <c r="F266" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G266" t="s">
         <v>1638</v>
@@ -12689,7 +12689,7 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G267" t="s">
         <v>972</v>
@@ -12715,7 +12715,7 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="G268" t="s">
         <v>1639</v>
@@ -12741,7 +12741,7 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1376</v>
+        <v>1336</v>
       </c>
       <c r="G269" t="s">
         <v>1640</v>
@@ -12767,7 +12767,7 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G270" t="s">
         <v>1641</v>
@@ -12871,7 +12871,7 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G274" t="s">
         <v>1645</v>
@@ -12975,7 +12975,7 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G278" t="s">
         <v>1647</v>
@@ -13001,7 +13001,7 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="G279" t="s">
         <v>1648</v>
@@ -13105,7 +13105,7 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G283" t="s">
         <v>1651</v>
@@ -13131,7 +13131,7 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="G284" t="s">
         <v>1652</v>
@@ -13313,7 +13313,7 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="G291" t="s">
         <v>1655</v>
@@ -13365,7 +13365,7 @@
         <v>1278</v>
       </c>
       <c r="F293" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G293" t="s">
         <v>1657</v>
@@ -13443,7 +13443,7 @@
         <v>1320</v>
       </c>
       <c r="F296" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G296" t="s">
         <v>1659</v>
@@ -13495,7 +13495,7 @@
         <v>1275</v>
       </c>
       <c r="F298" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G298" t="s">
         <v>1661</v>
@@ -13521,7 +13521,7 @@
         <v>1297</v>
       </c>
       <c r="F299" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G299" t="s">
         <v>1662</v>
@@ -13547,7 +13547,7 @@
         <v>1284</v>
       </c>
       <c r="F300" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G300" t="s">
         <v>1593</v>
@@ -13599,7 +13599,7 @@
         <v>1275</v>
       </c>
       <c r="F302" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G302" t="s">
         <v>1548</v>
@@ -13677,7 +13677,7 @@
         <v>1275</v>
       </c>
       <c r="F305" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G305" t="s">
         <v>1664</v>
@@ -13703,7 +13703,7 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G306" t="s">
         <v>1665</v>
@@ -13729,7 +13729,7 @@
         <v>1284</v>
       </c>
       <c r="F307" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="G307" t="s">
         <v>1666</v>
@@ -13755,7 +13755,7 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G308" t="s">
         <v>1667</v>
@@ -13859,7 +13859,7 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G312" t="s">
         <v>1668</v>
@@ -13911,7 +13911,7 @@
         <v>1278</v>
       </c>
       <c r="F314" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G314" t="s">
         <v>1531</v>
@@ -14015,7 +14015,7 @@
         <v>1284</v>
       </c>
       <c r="F318" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G318" t="s">
         <v>1669</v>
@@ -14119,7 +14119,7 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G322" t="s">
         <v>1671</v>
@@ -14145,7 +14145,7 @@
         <v>1275</v>
       </c>
       <c r="F323" t="s">
-        <v>1364</v>
+        <v>1372</v>
       </c>
       <c r="G323" t="s">
         <v>1548</v>
@@ -14223,7 +14223,7 @@
         <v>1284</v>
       </c>
       <c r="F326" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G326" t="s">
         <v>1672</v>
@@ -14249,7 +14249,7 @@
         <v>1314</v>
       </c>
       <c r="F327" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G327" t="s">
         <v>1673</v>
@@ -14275,7 +14275,7 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1423</v>
+        <v>1351</v>
       </c>
       <c r="G328" t="s">
         <v>1674</v>
@@ -14301,7 +14301,7 @@
         <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G329" t="s">
         <v>1675</v>
@@ -14327,7 +14327,7 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G330" t="s">
         <v>1676</v>
@@ -14405,7 +14405,7 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G333" t="s">
         <v>1668</v>
@@ -14457,7 +14457,7 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G335" t="s">
         <v>1678</v>
@@ -14561,7 +14561,7 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G339" t="s">
         <v>1680</v>
@@ -14665,7 +14665,7 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="G343" t="s">
         <v>1683</v>
@@ -14717,7 +14717,7 @@
         <v>1275</v>
       </c>
       <c r="F345" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G345" t="s">
         <v>1685</v>
@@ -14795,7 +14795,7 @@
         <v>1275</v>
       </c>
       <c r="F348" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G348" t="s">
         <v>1470</v>
@@ -14873,7 +14873,7 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
       <c r="G351" t="s">
         <v>1602</v>
@@ -14925,7 +14925,7 @@
         <v>1275</v>
       </c>
       <c r="F353" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G353" t="s">
         <v>1691</v>
@@ -15003,7 +15003,7 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
       <c r="G356" t="s">
         <v>1470</v>
@@ -15029,7 +15029,7 @@
         <v>1278</v>
       </c>
       <c r="F357" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G357" t="s">
         <v>1692</v>
@@ -15107,7 +15107,7 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1387</v>
+        <v>1365</v>
       </c>
       <c r="G360" t="s">
         <v>1694</v>
@@ -15211,7 +15211,7 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
       <c r="G364" t="s">
         <v>1513</v>
@@ -15289,7 +15289,7 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
       <c r="G367" t="s">
         <v>1697</v>
@@ -15315,7 +15315,7 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G368" t="s">
         <v>1698</v>
@@ -15341,7 +15341,7 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G369" t="s">
         <v>1669</v>
@@ -15419,7 +15419,7 @@
         <v>1297</v>
       </c>
       <c r="F372" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G372" t="s">
         <v>1699</v>
@@ -15445,7 +15445,7 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1338</v>
+        <v>1371</v>
       </c>
       <c r="G373" t="s">
         <v>1458</v>
@@ -15471,7 +15471,7 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G374" t="s">
         <v>1700</v>
@@ -15549,7 +15549,7 @@
         <v>1284</v>
       </c>
       <c r="F377" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G377" t="s">
         <v>1703</v>
@@ -15621,7 +15621,7 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G380" t="s">
         <v>1704</v>
@@ -15699,7 +15699,7 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G383" t="s">
         <v>1707</v>
@@ -15725,7 +15725,7 @@
         <v>1284</v>
       </c>
       <c r="F384" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G384" t="s">
         <v>1708</v>
@@ -15777,7 +15777,7 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G386" t="s">
         <v>1709</v>
@@ -15803,7 +15803,7 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G387" t="s">
         <v>1710</v>
@@ -15829,7 +15829,7 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G388" t="s">
         <v>1711</v>
@@ -15855,7 +15855,7 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G389" t="s">
         <v>1676</v>
@@ -15881,7 +15881,7 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G390" t="s">
         <v>1712</v>
@@ -15933,7 +15933,7 @@
         <v>1282</v>
       </c>
       <c r="F392" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G392" t="s">
         <v>1593</v>
@@ -15959,7 +15959,7 @@
         <v>1284</v>
       </c>
       <c r="F393" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G393" t="s">
         <v>1573</v>
@@ -16011,7 +16011,7 @@
         <v>1284</v>
       </c>
       <c r="F395" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G395" t="s">
         <v>1713</v>
@@ -16037,7 +16037,7 @@
         <v>1284</v>
       </c>
       <c r="F396" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G396" t="s">
         <v>1714</v>
@@ -16063,7 +16063,7 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1355</v>
+        <v>1380</v>
       </c>
       <c r="G397" t="s">
         <v>1715</v>
@@ -16115,7 +16115,7 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="G399" t="s">
         <v>1717</v>
@@ -16141,7 +16141,7 @@
         <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1426</v>
+        <v>1386</v>
       </c>
       <c r="G400" t="s">
         <v>1718</v>
@@ -16167,7 +16167,7 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G401" t="s">
         <v>1719</v>
@@ -16193,7 +16193,7 @@
         <v>1293</v>
       </c>
       <c r="F402" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G402" t="s">
         <v>1720</v>
@@ -16219,7 +16219,7 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G403" t="s">
         <v>1721</v>
@@ -16245,7 +16245,7 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1351</v>
+        <v>1382</v>
       </c>
       <c r="G404" t="s">
         <v>1722</v>
@@ -16323,7 +16323,7 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1373</v>
+        <v>1386</v>
       </c>
       <c r="G407" t="s">
         <v>1723</v>
@@ -16427,7 +16427,7 @@
         <v>1293</v>
       </c>
       <c r="F411" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G411" t="s">
         <v>1726</v>
@@ -16479,7 +16479,7 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G413" t="s">
         <v>972</v>
@@ -16531,7 +16531,7 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G415" t="s">
         <v>1727</v>
@@ -16557,7 +16557,7 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="G416" t="s">
         <v>1481</v>
@@ -16583,7 +16583,7 @@
         <v>1311</v>
       </c>
       <c r="F417" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G417" t="s">
         <v>1676</v>
@@ -16609,7 +16609,7 @@
         <v>1284</v>
       </c>
       <c r="F418" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G418" t="s">
         <v>1728</v>
@@ -16635,7 +16635,7 @@
         <v>1329</v>
       </c>
       <c r="F419" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="G419" t="s">
         <v>1729</v>
@@ -16713,7 +16713,7 @@
         <v>1330</v>
       </c>
       <c r="F422" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G422" t="s">
         <v>1730</v>
@@ -16739,7 +16739,7 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G423" t="s">
         <v>1676</v>
@@ -16765,7 +16765,7 @@
         <v>1284</v>
       </c>
       <c r="F424" t="s">
-        <v>1347</v>
+        <v>1446</v>
       </c>
       <c r="G424" t="s">
         <v>1731</v>
@@ -16791,7 +16791,7 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1413</v>
+        <v>1386</v>
       </c>
       <c r="G425" t="s">
         <v>1732</v>
@@ -16817,7 +16817,7 @@
         <v>1285</v>
       </c>
       <c r="F426" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G426" t="s">
         <v>1676</v>
@@ -16895,7 +16895,7 @@
         <v>1297</v>
       </c>
       <c r="F429" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G429" t="s">
         <v>1733</v>
@@ -16999,7 +16999,7 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1371</v>
+        <v>1381</v>
       </c>
       <c r="G433" t="s">
         <v>1735</v>
@@ -17025,7 +17025,7 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
       <c r="G434" t="s">
         <v>1736</v>
@@ -17051,7 +17051,7 @@
         <v>1296</v>
       </c>
       <c r="F435" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="G435" t="s">
         <v>1737</v>
@@ -17207,7 +17207,7 @@
         <v>1293</v>
       </c>
       <c r="F441" t="s">
-        <v>1387</v>
+        <v>1365</v>
       </c>
       <c r="G441" t="s">
         <v>1735</v>
@@ -17337,7 +17337,7 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G446" t="s">
         <v>1744</v>
@@ -17363,7 +17363,7 @@
         <v>1293</v>
       </c>
       <c r="F447" t="s">
-        <v>1347</v>
+        <v>1446</v>
       </c>
       <c r="G447" t="s">
         <v>1745</v>
@@ -17389,7 +17389,7 @@
         <v>1278</v>
       </c>
       <c r="F448" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G448" t="s">
         <v>1746</v>
@@ -17441,7 +17441,7 @@
         <v>1278</v>
       </c>
       <c r="F450" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
       <c r="G450" t="s">
         <v>1513</v>
@@ -17493,7 +17493,7 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1368</v>
+        <v>1339</v>
       </c>
       <c r="G452" t="s">
         <v>1749</v>
@@ -17519,7 +17519,7 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G453" t="s">
         <v>1750</v>
@@ -17597,7 +17597,7 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G456" t="s">
         <v>1752</v>
@@ -17727,7 +17727,7 @@
         <v>1293</v>
       </c>
       <c r="F461" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G461" t="s">
         <v>1756</v>

--- a/Results/Categorization/lda2vec-partial-ner.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1787">
   <si>
     <t>id</t>
   </si>
@@ -4024,274 +4024,262 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
     <t>FOOD|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD</t>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|FOOD|SERVICE|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|PRICES</t>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>PRICES|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|FOOD|PRICES|PRICES</t>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|FOOD|FOOD|PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|FOOD|FOOD|PRICES|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
     <t>AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES|AMBIENCE</t>
+    <t>AMBIENCE|PRICES|PRICES|PRICES|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|SERVICE</t>
@@ -4300,6 +4288,9 @@
     <t>AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
   </si>
   <si>
@@ -4309,10 +4300,10 @@
     <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|PRICES|FOOD</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+    <t>FOOD|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|PRICES</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|PRICES|PRICES|FOOD</t>
@@ -4321,19 +4312,16 @@
     <t>PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>PRICES|PRICES|FOOD|PRICES|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE|FOOD|SERVICE|FOOD|FOOD</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
     <t>SERVICE|FOOD|FOOD|PRICES</t>
@@ -4345,34 +4333,25 @@
     <t>PRICES|FOOD|FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
   </si>
   <si>
     <t>PRICES|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+    <t>FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD</t>
   </si>
   <si>
     <t>FOOD|SERVICE|FOOD|FOOD|FOOD</t>
@@ -5802,10 +5781,10 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
       <c r="H2" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5831,7 +5810,7 @@
         <v>937</v>
       </c>
       <c r="H3" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5854,10 +5833,10 @@
         <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="H4" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5880,10 +5859,10 @@
         <v>1277</v>
       </c>
       <c r="G5" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="H5" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5906,10 +5885,10 @@
         <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
       <c r="H6" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5932,10 +5911,10 @@
         <v>1277</v>
       </c>
       <c r="G7" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="H7" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5958,10 +5937,10 @@
         <v>1339</v>
       </c>
       <c r="G8" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="H8" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5984,10 +5963,10 @@
         <v>1340</v>
       </c>
       <c r="G9" t="s">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="H9" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6010,10 +5989,10 @@
         <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1462</v>
+        <v>1455</v>
       </c>
       <c r="H10" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6036,10 +6015,10 @@
         <v>1342</v>
       </c>
       <c r="G11" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="H11" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6062,10 +6041,10 @@
         <v>1277</v>
       </c>
       <c r="G12" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="H12" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6091,7 +6070,7 @@
         <v>937</v>
       </c>
       <c r="H13" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6114,10 +6093,10 @@
         <v>1277</v>
       </c>
       <c r="G14" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="H14" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6137,13 +6116,13 @@
         <v>1276</v>
       </c>
       <c r="F15" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="H15" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6163,13 +6142,13 @@
         <v>1282</v>
       </c>
       <c r="F16" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
       <c r="H16" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6189,13 +6168,13 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G17" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
       <c r="H17" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6215,13 +6194,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G18" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
       <c r="H18" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6241,13 +6220,13 @@
         <v>1275</v>
       </c>
       <c r="F19" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G19" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="H19" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6267,13 +6246,13 @@
         <v>1277</v>
       </c>
       <c r="F20" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G20" t="s">
         <v>937</v>
       </c>
       <c r="H20" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6293,13 +6272,13 @@
         <v>1275</v>
       </c>
       <c r="F21" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G21" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
       <c r="H21" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6319,13 +6298,13 @@
         <v>1284</v>
       </c>
       <c r="F22" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G22" t="s">
         <v>1124</v>
       </c>
       <c r="H22" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6351,7 +6330,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6371,13 +6350,13 @@
         <v>1275</v>
       </c>
       <c r="F24" t="s">
-        <v>1275</v>
+        <v>1293</v>
       </c>
       <c r="G24" t="s">
         <v>952</v>
       </c>
       <c r="H24" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6397,13 +6376,13 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G25" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="H25" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6423,13 +6402,13 @@
         <v>1277</v>
       </c>
       <c r="F26" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G26" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="H26" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6455,7 +6434,7 @@
         <v>952</v>
       </c>
       <c r="H27" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6475,13 +6454,13 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G28" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="H28" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6501,13 +6480,13 @@
         <v>1276</v>
       </c>
       <c r="F29" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G29" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="H29" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6530,10 +6509,10 @@
         <v>1277</v>
       </c>
       <c r="G30" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="H30" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6553,13 +6532,13 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G31" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="H31" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6579,13 +6558,13 @@
         <v>1283</v>
       </c>
       <c r="F32" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G32" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
       <c r="H32" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6605,13 +6584,13 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="G33" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
       <c r="H33" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6631,13 +6610,13 @@
         <v>1285</v>
       </c>
       <c r="F34" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G34" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="H34" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6657,13 +6636,13 @@
         <v>1277</v>
       </c>
       <c r="F35" t="s">
-        <v>1338</v>
+        <v>1352</v>
       </c>
       <c r="G35" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="H35" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6683,13 +6662,13 @@
         <v>1283</v>
       </c>
       <c r="F36" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="G36" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="H36" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6712,10 +6691,10 @@
         <v>1277</v>
       </c>
       <c r="G37" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="H37" t="s">
-        <v>1767</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6735,13 +6714,13 @@
         <v>1275</v>
       </c>
       <c r="F38" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G38" t="s">
-        <v>1482</v>
+        <v>1475</v>
       </c>
       <c r="H38" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6761,13 +6740,13 @@
         <v>1275</v>
       </c>
       <c r="F39" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G39" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="H39" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6787,13 +6766,13 @@
         <v>1277</v>
       </c>
       <c r="F40" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G40" t="s">
-        <v>1483</v>
+        <v>1476</v>
       </c>
       <c r="H40" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6813,13 +6792,13 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="G41" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="H41" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6839,13 +6818,13 @@
         <v>1284</v>
       </c>
       <c r="F42" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G42" t="s">
-        <v>1485</v>
+        <v>1478</v>
       </c>
       <c r="H42" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6865,13 +6844,13 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="G43" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="H43" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6891,13 +6870,13 @@
         <v>1277</v>
       </c>
       <c r="F44" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="G44" t="s">
-        <v>1487</v>
+        <v>1480</v>
       </c>
       <c r="H44" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6917,13 +6896,13 @@
         <v>1284</v>
       </c>
       <c r="F45" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G45" t="s">
-        <v>1488</v>
+        <v>1481</v>
       </c>
       <c r="H45" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6949,7 +6928,7 @@
         <v>972</v>
       </c>
       <c r="H46" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6975,7 +6954,7 @@
         <v>937</v>
       </c>
       <c r="H47" t="s">
-        <v>1768</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6995,13 +6974,13 @@
         <v>1288</v>
       </c>
       <c r="F48" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G48" t="s">
-        <v>1489</v>
+        <v>1482</v>
       </c>
       <c r="H48" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7027,7 +7006,7 @@
         <v>993</v>
       </c>
       <c r="H49" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7047,13 +7026,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="G50" t="s">
-        <v>1490</v>
+        <v>1483</v>
       </c>
       <c r="H50" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7073,13 +7052,13 @@
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="G51" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="H51" t="s">
-        <v>1770</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7099,13 +7078,13 @@
         <v>1277</v>
       </c>
       <c r="F52" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G52" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="H52" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7125,13 +7104,13 @@
         <v>1281</v>
       </c>
       <c r="F53" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G53" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="H53" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7151,13 +7130,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="G54" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="H54" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7177,13 +7156,13 @@
         <v>1276</v>
       </c>
       <c r="F55" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G55" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="H55" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7203,13 +7182,13 @@
         <v>1276</v>
       </c>
       <c r="F56" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G56" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
       <c r="H56" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7229,13 +7208,13 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="G57" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="H57" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7255,13 +7234,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="G58" t="s">
-        <v>1498</v>
+        <v>1491</v>
       </c>
       <c r="H58" t="s">
-        <v>1772</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7281,13 +7260,13 @@
         <v>1275</v>
       </c>
       <c r="F59" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="G59" t="s">
-        <v>1499</v>
+        <v>1492</v>
       </c>
       <c r="H59" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7307,13 +7286,13 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G60" t="s">
-        <v>1500</v>
+        <v>1493</v>
       </c>
       <c r="H60" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7333,13 +7312,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G61" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="H61" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7359,13 +7338,13 @@
         <v>1275</v>
       </c>
       <c r="F62" t="s">
-        <v>1284</v>
+        <v>1293</v>
       </c>
       <c r="G62" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="H62" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7391,7 +7370,7 @@
         <v>937</v>
       </c>
       <c r="H63" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7411,13 +7390,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="G64" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="H64" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7437,13 +7416,13 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1365</v>
+        <v>1339</v>
       </c>
       <c r="G65" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="H65" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7466,10 +7445,10 @@
         <v>1337</v>
       </c>
       <c r="G66" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="H66" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7489,13 +7468,13 @@
         <v>1275</v>
       </c>
       <c r="F67" t="s">
-        <v>1345</v>
+        <v>1367</v>
       </c>
       <c r="G67" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="H67" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7515,13 +7494,13 @@
         <v>1275</v>
       </c>
       <c r="F68" t="s">
-        <v>1366</v>
+        <v>1336</v>
       </c>
       <c r="G68" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
       <c r="H68" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7541,13 +7520,13 @@
         <v>1292</v>
       </c>
       <c r="F69" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G69" t="s">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="H69" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7573,7 +7552,7 @@
         <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7596,10 +7575,10 @@
         <v>1277</v>
       </c>
       <c r="G71" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="H71" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7619,13 +7598,13 @@
         <v>1277</v>
       </c>
       <c r="F72" t="s">
-        <v>1277</v>
+        <v>1293</v>
       </c>
       <c r="G72" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="H72" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7651,7 +7630,7 @@
         <v>937</v>
       </c>
       <c r="H73" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7671,13 +7650,13 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1367</v>
+        <v>1343</v>
       </c>
       <c r="G74" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
       <c r="H74" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7700,10 +7679,10 @@
         <v>1336</v>
       </c>
       <c r="G75" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
       <c r="H75" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7726,10 +7705,10 @@
         <v>1368</v>
       </c>
       <c r="G76" t="s">
-        <v>1511</v>
+        <v>1504</v>
       </c>
       <c r="H76" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7749,13 +7728,13 @@
         <v>1275</v>
       </c>
       <c r="F77" t="s">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="G77" t="s">
         <v>989</v>
       </c>
       <c r="H77" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7781,7 +7760,7 @@
         <v>999</v>
       </c>
       <c r="H78" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7801,13 +7780,13 @@
         <v>1277</v>
       </c>
       <c r="F79" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G79" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
       <c r="H79" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7830,10 +7809,10 @@
         <v>1339</v>
       </c>
       <c r="G80" t="s">
-        <v>1513</v>
+        <v>1506</v>
       </c>
       <c r="H80" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7853,13 +7832,13 @@
         <v>1277</v>
       </c>
       <c r="F81" t="s">
-        <v>1338</v>
+        <v>1352</v>
       </c>
       <c r="G81" t="s">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="H81" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7882,10 +7861,10 @@
         <v>1369</v>
       </c>
       <c r="G82" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="H82" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7905,13 +7884,13 @@
         <v>1277</v>
       </c>
       <c r="F83" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="G83" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="H83" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7934,10 +7913,10 @@
         <v>1370</v>
       </c>
       <c r="G84" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
       <c r="H84" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7963,7 +7942,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7989,7 +7968,7 @@
         <v>1004</v>
       </c>
       <c r="H86" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8009,13 +7988,13 @@
         <v>1281</v>
       </c>
       <c r="F87" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G87" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
       <c r="H87" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8038,10 +8017,10 @@
         <v>1277</v>
       </c>
       <c r="G88" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="H88" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8064,10 +8043,10 @@
         <v>1371</v>
       </c>
       <c r="G89" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
       <c r="H89" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8090,10 +8069,10 @@
         <v>1372</v>
       </c>
       <c r="G90" t="s">
-        <v>1521</v>
+        <v>1514</v>
       </c>
       <c r="H90" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8113,13 +8092,13 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G91" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="H91" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8139,13 +8118,13 @@
         <v>1297</v>
       </c>
       <c r="F92" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G92" t="s">
         <v>972</v>
       </c>
       <c r="H92" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8168,10 +8147,10 @@
         <v>1373</v>
       </c>
       <c r="G93" t="s">
-        <v>1523</v>
+        <v>1516</v>
       </c>
       <c r="H93" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8191,13 +8170,13 @@
         <v>1298</v>
       </c>
       <c r="F94" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="G94" t="s">
-        <v>1524</v>
+        <v>1517</v>
       </c>
       <c r="H94" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8220,10 +8199,10 @@
         <v>1369</v>
       </c>
       <c r="G95" t="s">
-        <v>1525</v>
+        <v>1518</v>
       </c>
       <c r="H95" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8246,10 +8225,10 @@
         <v>1374</v>
       </c>
       <c r="G96" t="s">
-        <v>1526</v>
+        <v>1519</v>
       </c>
       <c r="H96" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8269,13 +8248,13 @@
         <v>1299</v>
       </c>
       <c r="F97" t="s">
-        <v>1350</v>
+        <v>1375</v>
       </c>
       <c r="G97" t="s">
-        <v>1527</v>
+        <v>1520</v>
       </c>
       <c r="H97" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8298,10 +8277,10 @@
         <v>1277</v>
       </c>
       <c r="G98" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
       <c r="H98" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8324,10 +8303,10 @@
         <v>1277</v>
       </c>
       <c r="G99" t="s">
-        <v>1529</v>
+        <v>1522</v>
       </c>
       <c r="H99" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8347,13 +8326,13 @@
         <v>1275</v>
       </c>
       <c r="F100" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="G100" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
       <c r="H100" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8373,13 +8352,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G101" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="H101" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8399,13 +8378,13 @@
         <v>1278</v>
       </c>
       <c r="F102" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G102" t="s">
-        <v>1532</v>
+        <v>1525</v>
       </c>
       <c r="H102" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8428,10 +8407,10 @@
         <v>1277</v>
       </c>
       <c r="G103" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="H103" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8454,10 +8433,10 @@
         <v>1341</v>
       </c>
       <c r="G104" t="s">
-        <v>1533</v>
+        <v>1526</v>
       </c>
       <c r="H104" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8477,13 +8456,13 @@
         <v>1284</v>
       </c>
       <c r="F105" t="s">
-        <v>1339</v>
+        <v>1377</v>
       </c>
       <c r="G105" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="H105" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8509,7 +8488,7 @@
         <v>972</v>
       </c>
       <c r="H106" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8529,13 +8508,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G107" t="s">
-        <v>1535</v>
+        <v>1528</v>
       </c>
       <c r="H107" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8561,7 +8540,7 @@
         <v>935</v>
       </c>
       <c r="H108" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8584,10 +8563,10 @@
         <v>1376</v>
       </c>
       <c r="G109" t="s">
-        <v>1536</v>
+        <v>1529</v>
       </c>
       <c r="H109" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8607,13 +8586,13 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1372</v>
+        <v>1343</v>
       </c>
       <c r="G110" t="s">
-        <v>1537</v>
+        <v>1530</v>
       </c>
       <c r="H110" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8633,13 +8612,13 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G111" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="H111" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8659,13 +8638,13 @@
         <v>1297</v>
       </c>
       <c r="F112" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G112" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="H112" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8685,13 +8664,13 @@
         <v>1275</v>
       </c>
       <c r="F113" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="G113" t="s">
-        <v>1539</v>
+        <v>1532</v>
       </c>
       <c r="H113" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8711,13 +8690,13 @@
         <v>1277</v>
       </c>
       <c r="F114" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G114" t="s">
-        <v>1540</v>
+        <v>1533</v>
       </c>
       <c r="H114" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8740,10 +8719,10 @@
         <v>1284</v>
       </c>
       <c r="G115" t="s">
-        <v>1529</v>
+        <v>1522</v>
       </c>
       <c r="H115" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8769,7 +8748,7 @@
         <v>1069</v>
       </c>
       <c r="H116" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8795,7 +8774,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8815,13 +8794,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="G118" t="s">
-        <v>1541</v>
+        <v>1534</v>
       </c>
       <c r="H118" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8841,13 +8820,13 @@
         <v>1276</v>
       </c>
       <c r="F119" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="G119" t="s">
-        <v>1542</v>
+        <v>1535</v>
       </c>
       <c r="H119" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8867,13 +8846,13 @@
         <v>1277</v>
       </c>
       <c r="F120" t="s">
-        <v>1348</v>
+        <v>1378</v>
       </c>
       <c r="G120" t="s">
-        <v>1543</v>
+        <v>1536</v>
       </c>
       <c r="H120" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8893,13 +8872,13 @@
         <v>1295</v>
       </c>
       <c r="F121" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="G121" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="H121" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8919,13 +8898,13 @@
         <v>1277</v>
       </c>
       <c r="F122" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G122" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="H122" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8951,7 +8930,7 @@
         <v>972</v>
       </c>
       <c r="H123" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8977,7 +8956,7 @@
         <v>952</v>
       </c>
       <c r="H124" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9003,7 +8982,7 @@
         <v>935</v>
       </c>
       <c r="H125" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9029,7 +9008,7 @@
         <v>937</v>
       </c>
       <c r="H126" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9049,13 +9028,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G127" t="s">
-        <v>1546</v>
+        <v>1539</v>
       </c>
       <c r="H127" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9078,10 +9057,10 @@
         <v>1277</v>
       </c>
       <c r="G128" t="s">
-        <v>1547</v>
+        <v>1540</v>
       </c>
       <c r="H128" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9107,7 +9086,7 @@
         <v>1004</v>
       </c>
       <c r="H129" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9130,10 +9109,10 @@
         <v>1277</v>
       </c>
       <c r="G130" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="H130" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9153,13 +9132,13 @@
         <v>1275</v>
       </c>
       <c r="F131" t="s">
-        <v>1378</v>
+        <v>1341</v>
       </c>
       <c r="G131" t="s">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="H131" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9179,13 +9158,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="G132" t="s">
-        <v>1549</v>
+        <v>1542</v>
       </c>
       <c r="H132" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9205,13 +9184,13 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1348</v>
+        <v>1380</v>
       </c>
       <c r="G133" t="s">
-        <v>1550</v>
+        <v>1543</v>
       </c>
       <c r="H133" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9231,13 +9210,13 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1339</v>
+        <v>1371</v>
       </c>
       <c r="G134" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
       <c r="H134" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9257,13 +9236,13 @@
         <v>1275</v>
       </c>
       <c r="F135" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="G135" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
       <c r="H135" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9283,13 +9262,13 @@
         <v>1275</v>
       </c>
       <c r="F136" t="s">
-        <v>1380</v>
+        <v>1349</v>
       </c>
       <c r="G136" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="H136" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9309,13 +9288,13 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="G137" t="s">
-        <v>1554</v>
+        <v>1547</v>
       </c>
       <c r="H137" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9335,13 +9314,13 @@
         <v>1297</v>
       </c>
       <c r="F138" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G138" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
       <c r="H138" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9361,13 +9340,13 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G139" t="s">
-        <v>1556</v>
+        <v>1549</v>
       </c>
       <c r="H139" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9387,13 +9366,13 @@
         <v>1277</v>
       </c>
       <c r="F140" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G140" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="H140" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9413,13 +9392,13 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G141" t="s">
         <v>972</v>
       </c>
       <c r="H141" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9439,13 +9418,13 @@
         <v>1276</v>
       </c>
       <c r="F142" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="G142" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="H142" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9468,10 +9447,10 @@
         <v>1339</v>
       </c>
       <c r="G143" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="H143" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9491,13 +9470,13 @@
         <v>1297</v>
       </c>
       <c r="F144" t="s">
-        <v>1374</v>
+        <v>1359</v>
       </c>
       <c r="G144" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="H144" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9517,13 +9496,13 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="G145" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="H145" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9549,7 +9528,7 @@
         <v>1054</v>
       </c>
       <c r="H146" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9572,10 +9551,10 @@
         <v>1382</v>
       </c>
       <c r="G147" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="H147" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9595,13 +9574,13 @@
         <v>1283</v>
       </c>
       <c r="F148" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G148" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="H148" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9624,10 +9603,10 @@
         <v>1277</v>
       </c>
       <c r="G149" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="H149" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9653,7 +9632,7 @@
         <v>993</v>
       </c>
       <c r="H150" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9676,10 +9655,10 @@
         <v>1383</v>
       </c>
       <c r="G151" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
       <c r="H151" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9705,7 +9684,7 @@
         <v>935</v>
       </c>
       <c r="H152" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9728,10 +9707,10 @@
         <v>1277</v>
       </c>
       <c r="G153" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
       <c r="H153" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9751,13 +9730,13 @@
         <v>1276</v>
       </c>
       <c r="F154" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="G154" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="H154" t="s">
-        <v>1778</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9780,10 +9759,10 @@
         <v>1384</v>
       </c>
       <c r="G155" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="H155" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9809,7 +9788,7 @@
         <v>1000</v>
       </c>
       <c r="H156" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9832,10 +9811,10 @@
         <v>1277</v>
       </c>
       <c r="G157" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="H157" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9858,10 +9837,10 @@
         <v>1385</v>
       </c>
       <c r="G158" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="H158" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9881,13 +9860,13 @@
         <v>1277</v>
       </c>
       <c r="F159" t="s">
-        <v>1369</v>
+        <v>1386</v>
       </c>
       <c r="G159" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
       <c r="H159" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9910,10 +9889,10 @@
         <v>1284</v>
       </c>
       <c r="G160" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="H160" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9933,13 +9912,13 @@
         <v>1277</v>
       </c>
       <c r="F161" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G161" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="H161" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9962,10 +9941,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="H162" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9985,13 +9964,13 @@
         <v>1284</v>
       </c>
       <c r="F163" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G163" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="H163" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10011,13 +9990,13 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1381</v>
+        <v>1339</v>
       </c>
       <c r="G164" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="H164" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10037,13 +10016,13 @@
         <v>1284</v>
       </c>
       <c r="F165" t="s">
-        <v>1386</v>
+        <v>1359</v>
       </c>
       <c r="G165" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="H165" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10069,7 +10048,7 @@
         <v>1066</v>
       </c>
       <c r="H166" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10089,13 +10068,13 @@
         <v>1277</v>
       </c>
       <c r="F167" t="s">
-        <v>1371</v>
+        <v>1339</v>
       </c>
       <c r="G167" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
       <c r="H167" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10121,7 +10100,7 @@
         <v>980</v>
       </c>
       <c r="H168" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10141,13 +10120,13 @@
         <v>1278</v>
       </c>
       <c r="F169" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="G169" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
       <c r="H169" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10170,10 +10149,10 @@
         <v>1387</v>
       </c>
       <c r="G170" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="H170" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10193,13 +10172,13 @@
         <v>1277</v>
       </c>
       <c r="F171" t="s">
-        <v>1339</v>
+        <v>1377</v>
       </c>
       <c r="G171" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
       <c r="H171" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10219,13 +10198,13 @@
         <v>1278</v>
       </c>
       <c r="F172" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G172" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="H172" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10248,10 +10227,10 @@
         <v>1388</v>
       </c>
       <c r="G173" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="H173" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10271,13 +10250,13 @@
         <v>1299</v>
       </c>
       <c r="F174" t="s">
-        <v>1365</v>
+        <v>1339</v>
       </c>
       <c r="G174" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
       <c r="H174" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10297,13 +10276,13 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G175" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="H175" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10323,13 +10302,13 @@
         <v>1275</v>
       </c>
       <c r="F176" t="s">
-        <v>1371</v>
+        <v>1352</v>
       </c>
       <c r="G176" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="H176" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10352,10 +10331,10 @@
         <v>1277</v>
       </c>
       <c r="G177" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="H177" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10375,13 +10354,13 @@
         <v>1295</v>
       </c>
       <c r="F178" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G178" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="H178" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10404,10 +10383,10 @@
         <v>1277</v>
       </c>
       <c r="G179" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="H179" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10430,10 +10409,10 @@
         <v>1389</v>
       </c>
       <c r="G180" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
       <c r="H180" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10456,10 +10435,10 @@
         <v>1284</v>
       </c>
       <c r="G181" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
       <c r="H181" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10479,13 +10458,13 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="G182" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="H182" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10505,13 +10484,13 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G183" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="H183" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10531,13 +10510,13 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G184" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="H184" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10557,13 +10536,13 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G185" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H185" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10586,10 +10565,10 @@
         <v>1339</v>
       </c>
       <c r="G186" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="H186" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10615,7 +10594,7 @@
         <v>993</v>
       </c>
       <c r="H187" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10638,10 +10617,10 @@
         <v>1277</v>
       </c>
       <c r="G188" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="H188" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10664,10 +10643,10 @@
         <v>1277</v>
       </c>
       <c r="G189" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="H189" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10687,13 +10666,13 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1378</v>
+        <v>1393</v>
       </c>
       <c r="G190" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
       <c r="H190" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10713,13 +10692,13 @@
         <v>1284</v>
       </c>
       <c r="F191" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G191" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="H191" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10739,13 +10718,13 @@
         <v>1277</v>
       </c>
       <c r="F192" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G192" t="s">
-        <v>1535</v>
+        <v>1528</v>
       </c>
       <c r="H192" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10771,7 +10750,7 @@
         <v>993</v>
       </c>
       <c r="H193" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10791,13 +10770,13 @@
         <v>1299</v>
       </c>
       <c r="F194" t="s">
-        <v>1378</v>
+        <v>1393</v>
       </c>
       <c r="G194" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="H194" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10823,7 +10802,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10843,13 +10822,13 @@
         <v>1276</v>
       </c>
       <c r="F196" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G196" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="H196" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10869,13 +10848,13 @@
         <v>1310</v>
       </c>
       <c r="F197" t="s">
-        <v>1366</v>
+        <v>1336</v>
       </c>
       <c r="G197" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="H197" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10898,10 +10877,10 @@
         <v>1394</v>
       </c>
       <c r="G198" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="H198" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10924,10 +10903,10 @@
         <v>1277</v>
       </c>
       <c r="G199" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="H199" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10953,7 +10932,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10973,13 +10952,13 @@
         <v>1284</v>
       </c>
       <c r="F201" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G201" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="H201" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11005,7 +10984,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11028,10 +11007,10 @@
         <v>1284</v>
       </c>
       <c r="G203" t="s">
-        <v>1529</v>
+        <v>1522</v>
       </c>
       <c r="H203" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11051,13 +11030,13 @@
         <v>1277</v>
       </c>
       <c r="F204" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G204" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="H204" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11077,13 +11056,13 @@
         <v>1277</v>
       </c>
       <c r="F205" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="G205" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="H205" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11103,13 +11082,13 @@
         <v>1284</v>
       </c>
       <c r="F206" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="G206" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="H206" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11132,10 +11111,10 @@
         <v>1395</v>
       </c>
       <c r="G207" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="H207" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11161,7 +11140,7 @@
         <v>1093</v>
       </c>
       <c r="H208" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11184,10 +11163,10 @@
         <v>1396</v>
       </c>
       <c r="G209" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="H209" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11210,10 +11189,10 @@
         <v>1277</v>
       </c>
       <c r="G210" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="H210" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11236,10 +11215,10 @@
         <v>1397</v>
       </c>
       <c r="G211" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="H211" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11265,7 +11244,7 @@
         <v>952</v>
       </c>
       <c r="H212" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11285,13 +11264,13 @@
         <v>1277</v>
       </c>
       <c r="F213" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G213" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="H213" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11317,7 +11296,7 @@
         <v>1050</v>
       </c>
       <c r="H214" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11340,10 +11319,10 @@
         <v>1277</v>
       </c>
       <c r="G215" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="H215" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11366,10 +11345,10 @@
         <v>1398</v>
       </c>
       <c r="G216" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="H216" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11389,13 +11368,13 @@
         <v>1277</v>
       </c>
       <c r="F217" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="G217" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="H217" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11418,10 +11397,10 @@
         <v>1284</v>
       </c>
       <c r="G218" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="H218" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11441,13 +11420,13 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1382</v>
+        <v>1348</v>
       </c>
       <c r="G219" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="H219" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11467,13 +11446,13 @@
         <v>1277</v>
       </c>
       <c r="F220" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="G220" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="H220" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11493,13 +11472,13 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1378</v>
+        <v>1393</v>
       </c>
       <c r="G221" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="H221" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11522,10 +11501,10 @@
         <v>1284</v>
       </c>
       <c r="G222" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="H222" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11548,10 +11527,10 @@
         <v>1399</v>
       </c>
       <c r="G223" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="H223" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11577,7 +11556,7 @@
         <v>952</v>
       </c>
       <c r="H224" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11597,13 +11576,13 @@
         <v>1275</v>
       </c>
       <c r="F225" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G225" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="H225" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11626,10 +11605,10 @@
         <v>1400</v>
       </c>
       <c r="G226" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="H226" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11652,10 +11631,10 @@
         <v>1401</v>
       </c>
       <c r="G227" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="H227" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11675,13 +11654,13 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1386</v>
+        <v>1359</v>
       </c>
       <c r="G228" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="H228" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11707,7 +11686,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11733,7 +11712,7 @@
         <v>935</v>
       </c>
       <c r="H230" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11759,7 +11738,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11779,13 +11758,13 @@
         <v>1284</v>
       </c>
       <c r="F232" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G232" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="H232" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11805,13 +11784,13 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="G233" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="H233" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11834,10 +11813,10 @@
         <v>1293</v>
       </c>
       <c r="G234" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="H234" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11863,7 +11842,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11886,10 +11865,10 @@
         <v>1293</v>
       </c>
       <c r="G236" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="H236" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11912,10 +11891,10 @@
         <v>1293</v>
       </c>
       <c r="G237" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="H237" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11935,13 +11914,13 @@
         <v>1284</v>
       </c>
       <c r="F238" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G238" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="H238" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11961,13 +11940,13 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G239" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="H239" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11987,13 +11966,13 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G240" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="H240" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12013,13 +11992,13 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1365</v>
+        <v>1346</v>
       </c>
       <c r="G241" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
       <c r="H241" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12039,13 +12018,13 @@
         <v>1315</v>
       </c>
       <c r="F242" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G242" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="H242" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12071,7 +12050,7 @@
         <v>952</v>
       </c>
       <c r="H243" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12091,13 +12070,13 @@
         <v>1284</v>
       </c>
       <c r="F244" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G244" t="s">
         <v>972</v>
       </c>
       <c r="H244" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12117,13 +12096,13 @@
         <v>1316</v>
       </c>
       <c r="F245" t="s">
-        <v>1406</v>
+        <v>1380</v>
       </c>
       <c r="G245" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="H245" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12146,10 +12125,10 @@
         <v>1284</v>
       </c>
       <c r="G246" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="H246" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12172,10 +12151,10 @@
         <v>1383</v>
       </c>
       <c r="G247" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="H247" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12195,13 +12174,13 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1407</v>
+        <v>1384</v>
       </c>
       <c r="G248" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="H248" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12221,13 +12200,13 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1365</v>
+        <v>1346</v>
       </c>
       <c r="G249" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="H249" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12247,13 +12226,13 @@
         <v>1275</v>
       </c>
       <c r="F250" t="s">
-        <v>1408</v>
+        <v>1359</v>
       </c>
       <c r="G250" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="H250" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12279,7 +12258,7 @@
         <v>935</v>
       </c>
       <c r="H251" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12299,13 +12278,13 @@
         <v>1309</v>
       </c>
       <c r="F252" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="G252" t="s">
         <v>989</v>
       </c>
       <c r="H252" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12325,13 +12304,13 @@
         <v>1275</v>
       </c>
       <c r="F253" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="G253" t="s">
         <v>989</v>
       </c>
       <c r="H253" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12351,13 +12330,13 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="G254" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="H254" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12377,13 +12356,13 @@
         <v>1278</v>
       </c>
       <c r="F255" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G255" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="H255" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12403,13 +12382,13 @@
         <v>1299</v>
       </c>
       <c r="F256" t="s">
-        <v>1342</v>
+        <v>1406</v>
       </c>
       <c r="G256" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="H256" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12429,13 +12408,13 @@
         <v>1275</v>
       </c>
       <c r="F257" t="s">
-        <v>1410</v>
+        <v>1356</v>
       </c>
       <c r="G257" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="H257" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12455,13 +12434,13 @@
         <v>1275</v>
       </c>
       <c r="F258" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="G258" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="H258" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12487,7 +12466,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12507,13 +12486,13 @@
         <v>1275</v>
       </c>
       <c r="F260" t="s">
-        <v>1338</v>
+        <v>1352</v>
       </c>
       <c r="G260" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="H260" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12536,10 +12515,10 @@
         <v>1293</v>
       </c>
       <c r="G261" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="H261" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12559,13 +12538,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="G262" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="H262" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12588,10 +12567,10 @@
         <v>1277</v>
       </c>
       <c r="G263" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="H263" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12611,13 +12590,13 @@
         <v>1284</v>
       </c>
       <c r="F264" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G264" t="s">
         <v>1069</v>
       </c>
       <c r="H264" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12640,10 +12619,10 @@
         <v>1293</v>
       </c>
       <c r="G265" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="H265" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12663,13 +12642,13 @@
         <v>1284</v>
       </c>
       <c r="F266" t="s">
-        <v>1386</v>
+        <v>1359</v>
       </c>
       <c r="G266" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="H266" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12689,13 +12668,13 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G267" t="s">
         <v>972</v>
       </c>
       <c r="H267" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12715,13 +12694,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1412</v>
+        <v>1336</v>
       </c>
       <c r="G268" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="H268" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12741,13 +12720,13 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1336</v>
+        <v>1359</v>
       </c>
       <c r="G269" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="H269" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12767,13 +12746,13 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1390</v>
+        <v>1408</v>
       </c>
       <c r="G270" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="H270" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12793,13 +12772,13 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G271" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="H271" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12819,13 +12798,13 @@
         <v>1278</v>
       </c>
       <c r="F272" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="G272" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="H272" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12845,13 +12824,13 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="G273" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="H273" t="s">
-        <v>1770</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12871,13 +12850,13 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1367</v>
+        <v>1407</v>
       </c>
       <c r="G274" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="H274" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12897,13 +12876,13 @@
         <v>1275</v>
       </c>
       <c r="F275" t="s">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="G275" t="s">
         <v>989</v>
       </c>
       <c r="H275" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12923,13 +12902,13 @@
         <v>1303</v>
       </c>
       <c r="F276" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="G276" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="H276" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12952,10 +12931,10 @@
         <v>1277</v>
       </c>
       <c r="G277" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="H277" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12975,13 +12954,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="G278" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="H278" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13004,10 +12983,10 @@
         <v>1374</v>
       </c>
       <c r="G279" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="H279" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13027,13 +13006,13 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="G280" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="H280" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13053,13 +13032,13 @@
         <v>1275</v>
       </c>
       <c r="F281" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="G281" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="H281" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13082,10 +13061,10 @@
         <v>1284</v>
       </c>
       <c r="G282" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="H282" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13105,13 +13084,13 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G283" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="H283" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13131,13 +13110,13 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1412</v>
+        <v>1358</v>
       </c>
       <c r="G284" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="H284" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13163,7 +13142,7 @@
         <v>1228</v>
       </c>
       <c r="H285" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13183,13 +13162,13 @@
         <v>1275</v>
       </c>
       <c r="F286" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G286" t="s">
         <v>989</v>
       </c>
       <c r="H286" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13209,13 +13188,13 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="G287" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="H287" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13241,7 +13220,7 @@
         <v>1119</v>
       </c>
       <c r="H288" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13267,7 +13246,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13287,13 +13266,13 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="G290" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="H290" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13313,13 +13292,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="G291" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="H291" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13339,13 +13318,13 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1421</v>
+        <v>1356</v>
       </c>
       <c r="G292" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="H292" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13365,13 +13344,13 @@
         <v>1278</v>
       </c>
       <c r="F293" t="s">
-        <v>1406</v>
+        <v>1380</v>
       </c>
       <c r="G293" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="H293" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13391,13 +13370,13 @@
         <v>1275</v>
       </c>
       <c r="F294" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G294" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="H294" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13420,10 +13399,10 @@
         <v>1277</v>
       </c>
       <c r="G295" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="H295" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13446,10 +13425,10 @@
         <v>1368</v>
       </c>
       <c r="G296" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
       <c r="H296" t="s">
-        <v>1770</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13469,13 +13448,13 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1422</v>
+        <v>1356</v>
       </c>
       <c r="G297" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="H297" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13495,13 +13474,13 @@
         <v>1275</v>
       </c>
       <c r="F298" t="s">
-        <v>1377</v>
+        <v>1418</v>
       </c>
       <c r="G298" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="H298" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13521,13 +13500,13 @@
         <v>1297</v>
       </c>
       <c r="F299" t="s">
-        <v>1386</v>
+        <v>1419</v>
       </c>
       <c r="G299" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="H299" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13547,13 +13526,13 @@
         <v>1284</v>
       </c>
       <c r="F300" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G300" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="H300" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13579,7 +13558,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13599,13 +13578,13 @@
         <v>1275</v>
       </c>
       <c r="F302" t="s">
-        <v>1378</v>
+        <v>1393</v>
       </c>
       <c r="G302" t="s">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="H302" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13628,10 +13607,10 @@
         <v>1284</v>
       </c>
       <c r="G303" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="H303" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13651,13 +13630,13 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1423</v>
+        <v>1377</v>
       </c>
       <c r="G304" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="H304" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13677,13 +13656,13 @@
         <v>1275</v>
       </c>
       <c r="F305" t="s">
-        <v>1346</v>
+        <v>1367</v>
       </c>
       <c r="G305" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="H305" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13703,13 +13682,13 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1367</v>
+        <v>1343</v>
       </c>
       <c r="G306" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="H306" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13729,13 +13708,13 @@
         <v>1284</v>
       </c>
       <c r="F307" t="s">
-        <v>1374</v>
+        <v>1359</v>
       </c>
       <c r="G307" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="H307" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13755,13 +13734,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="G308" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="H308" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13781,13 +13760,13 @@
         <v>1275</v>
       </c>
       <c r="F309" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="G309" t="s">
         <v>989</v>
       </c>
       <c r="H309" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13807,13 +13786,13 @@
         <v>1321</v>
       </c>
       <c r="F310" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G310" t="s">
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13839,7 +13818,7 @@
         <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13859,13 +13838,13 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G312" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="H312" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13891,7 +13870,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13914,10 +13893,10 @@
         <v>1387</v>
       </c>
       <c r="G314" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="H314" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13943,7 +13922,7 @@
         <v>1093</v>
       </c>
       <c r="H315" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13969,7 +13948,7 @@
         <v>1093</v>
       </c>
       <c r="H316" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13995,7 +13974,7 @@
         <v>972</v>
       </c>
       <c r="H317" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14015,13 +13994,13 @@
         <v>1284</v>
       </c>
       <c r="F318" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G318" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="H318" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14047,7 +14026,7 @@
         <v>952</v>
       </c>
       <c r="H319" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14073,7 +14052,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14093,13 +14072,13 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="G321" t="s">
-        <v>1670</v>
+        <v>1663</v>
       </c>
       <c r="H321" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14119,13 +14098,13 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1406</v>
+        <v>1380</v>
       </c>
       <c r="G322" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="H322" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14148,10 +14127,10 @@
         <v>1372</v>
       </c>
       <c r="G323" t="s">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="H323" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14171,13 +14150,13 @@
         <v>1278</v>
       </c>
       <c r="F324" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G324" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="H324" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14203,7 +14182,7 @@
         <v>1175</v>
       </c>
       <c r="H325" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14223,13 +14202,13 @@
         <v>1284</v>
       </c>
       <c r="F326" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G326" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
       <c r="H326" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14249,13 +14228,13 @@
         <v>1314</v>
       </c>
       <c r="F327" t="s">
-        <v>1381</v>
+        <v>1407</v>
       </c>
       <c r="G327" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="H327" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14275,13 +14254,13 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1351</v>
+        <v>1377</v>
       </c>
       <c r="G328" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="H328" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14301,13 +14280,13 @@
         <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G329" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
       <c r="H329" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14327,13 +14306,13 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="G330" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="H330" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14359,7 +14338,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14385,7 +14364,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14405,13 +14384,13 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G333" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="H333" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14431,13 +14410,13 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1423</v>
+        <v>1377</v>
       </c>
       <c r="G334" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="H334" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14457,13 +14436,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G335" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="H335" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14486,10 +14465,10 @@
         <v>1277</v>
       </c>
       <c r="G336" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="H336" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14509,13 +14488,13 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="G337" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="H337" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14538,10 +14517,10 @@
         <v>1284</v>
       </c>
       <c r="G338" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="H338" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14561,13 +14540,13 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1378</v>
+        <v>1393</v>
       </c>
       <c r="G339" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="H339" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14593,7 +14572,7 @@
         <v>1184</v>
       </c>
       <c r="H340" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14613,13 +14592,13 @@
         <v>1321</v>
       </c>
       <c r="F341" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="G341" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="H341" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14639,13 +14618,13 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="G342" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="H342" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14665,13 +14644,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G343" t="s">
-        <v>1683</v>
+        <v>1676</v>
       </c>
       <c r="H343" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14691,13 +14670,13 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="G344" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="H344" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14720,10 +14699,10 @@
         <v>1384</v>
       </c>
       <c r="G345" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
       <c r="H345" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14746,10 +14725,10 @@
         <v>1293</v>
       </c>
       <c r="G346" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
       <c r="H346" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14769,13 +14748,13 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1370</v>
+        <v>1424</v>
       </c>
       <c r="G347" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="H347" t="s">
-        <v>1785</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14795,13 +14774,13 @@
         <v>1275</v>
       </c>
       <c r="F348" t="s">
-        <v>1378</v>
+        <v>1393</v>
       </c>
       <c r="G348" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
       <c r="H348" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14821,13 +14800,13 @@
         <v>1299</v>
       </c>
       <c r="F349" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="G349" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="H349" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14847,13 +14826,13 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="G350" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="H350" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14876,10 +14855,10 @@
         <v>1339</v>
       </c>
       <c r="G351" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="H351" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14899,13 +14878,13 @@
         <v>1299</v>
       </c>
       <c r="F352" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="G352" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="H352" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14928,10 +14907,10 @@
         <v>1341</v>
       </c>
       <c r="G353" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="H353" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14951,13 +14930,13 @@
         <v>1275</v>
       </c>
       <c r="F354" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="G354" t="s">
         <v>989</v>
       </c>
       <c r="H354" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14983,7 +14962,7 @@
         <v>1093</v>
       </c>
       <c r="H355" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15003,13 +14982,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1378</v>
+        <v>1393</v>
       </c>
       <c r="G356" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
       <c r="H356" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15029,13 +15008,13 @@
         <v>1278</v>
       </c>
       <c r="F357" t="s">
-        <v>1406</v>
+        <v>1380</v>
       </c>
       <c r="G357" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="H357" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15055,13 +15034,13 @@
         <v>1321</v>
       </c>
       <c r="F358" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G358" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="H358" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15087,7 +15066,7 @@
         <v>972</v>
       </c>
       <c r="H359" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15107,13 +15086,13 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1365</v>
+        <v>1346</v>
       </c>
       <c r="G360" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="H360" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15133,13 +15112,13 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="G361" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="H361" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15162,10 +15141,10 @@
         <v>1284</v>
       </c>
       <c r="G362" t="s">
-        <v>1547</v>
+        <v>1540</v>
       </c>
       <c r="H362" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15191,7 +15170,7 @@
         <v>989</v>
       </c>
       <c r="H363" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15214,10 +15193,10 @@
         <v>1339</v>
       </c>
       <c r="G364" t="s">
-        <v>1513</v>
+        <v>1506</v>
       </c>
       <c r="H364" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15240,10 +15219,10 @@
         <v>1277</v>
       </c>
       <c r="G365" t="s">
-        <v>1539</v>
+        <v>1532</v>
       </c>
       <c r="H365" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15263,13 +15242,13 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="G366" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="H366" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15289,13 +15268,13 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G367" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
       <c r="H367" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15315,13 +15294,13 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G368" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
       <c r="H368" t="s">
-        <v>1787</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15341,13 +15320,13 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="G369" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="H369" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15373,7 +15352,7 @@
         <v>1119</v>
       </c>
       <c r="H370" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15393,13 +15372,13 @@
         <v>1278</v>
       </c>
       <c r="F371" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G371" t="s">
-        <v>1540</v>
+        <v>1533</v>
       </c>
       <c r="H371" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15419,13 +15398,13 @@
         <v>1297</v>
       </c>
       <c r="F372" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G372" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
       <c r="H372" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15445,13 +15424,13 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1371</v>
+        <v>1352</v>
       </c>
       <c r="G373" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
       <c r="H373" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15471,13 +15450,13 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G374" t="s">
-        <v>1700</v>
+        <v>1693</v>
       </c>
       <c r="H374" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15497,13 +15476,13 @@
         <v>1278</v>
       </c>
       <c r="F375" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G375" t="s">
-        <v>1701</v>
+        <v>1694</v>
       </c>
       <c r="H375" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15523,13 +15502,13 @@
         <v>1284</v>
       </c>
       <c r="F376" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="G376" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
       <c r="H376" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15549,13 +15528,13 @@
         <v>1284</v>
       </c>
       <c r="F377" t="s">
-        <v>1435</v>
+        <v>1344</v>
       </c>
       <c r="G377" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="H377" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15575,7 +15554,7 @@
         <v>1284</v>
       </c>
       <c r="H378" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15601,7 +15580,7 @@
         <v>1119</v>
       </c>
       <c r="H379" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15621,13 +15600,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="G380" t="s">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="H380" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15647,13 +15626,13 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="G381" t="s">
-        <v>1705</v>
+        <v>1698</v>
       </c>
       <c r="H381" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15676,10 +15655,10 @@
         <v>1371</v>
       </c>
       <c r="G382" t="s">
-        <v>1706</v>
+        <v>1699</v>
       </c>
       <c r="H382" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15699,13 +15678,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="G383" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="H383" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15725,13 +15704,13 @@
         <v>1284</v>
       </c>
       <c r="F384" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G384" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
       <c r="H384" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15754,10 +15733,10 @@
         <v>1293</v>
       </c>
       <c r="G385" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="H385" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15777,13 +15756,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="G386" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
       <c r="H386" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15803,13 +15782,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="G387" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
       <c r="H387" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15829,13 +15808,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="G388" t="s">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="H388" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15855,13 +15834,13 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="G389" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="H389" t="s">
-        <v>1778</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15881,13 +15860,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="G390" t="s">
-        <v>1712</v>
+        <v>1705</v>
       </c>
       <c r="H390" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15913,7 +15892,7 @@
         <v>1000</v>
       </c>
       <c r="H391" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15933,13 +15912,13 @@
         <v>1282</v>
       </c>
       <c r="F392" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G392" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="H392" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15959,13 +15938,13 @@
         <v>1284</v>
       </c>
       <c r="F393" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G393" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="H393" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15985,13 +15964,13 @@
         <v>1294</v>
       </c>
       <c r="F394" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G394" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="H394" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16011,13 +15990,13 @@
         <v>1284</v>
       </c>
       <c r="F395" t="s">
-        <v>1381</v>
+        <v>1352</v>
       </c>
       <c r="G395" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="H395" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16037,13 +16016,13 @@
         <v>1284</v>
       </c>
       <c r="F396" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G396" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="H396" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16063,13 +16042,13 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1380</v>
+        <v>1358</v>
       </c>
       <c r="G397" t="s">
-        <v>1715</v>
+        <v>1708</v>
       </c>
       <c r="H397" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16089,13 +16068,13 @@
         <v>1284</v>
       </c>
       <c r="F398" t="s">
-        <v>1423</v>
+        <v>1377</v>
       </c>
       <c r="G398" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="H398" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16118,10 +16097,10 @@
         <v>1374</v>
       </c>
       <c r="G399" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="H399" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16141,13 +16120,13 @@
         <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1386</v>
+        <v>1423</v>
       </c>
       <c r="G400" t="s">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="H400" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16167,13 +16146,13 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="G401" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="H401" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16193,13 +16172,13 @@
         <v>1293</v>
       </c>
       <c r="F402" t="s">
-        <v>1381</v>
+        <v>1431</v>
       </c>
       <c r="G402" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="H402" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16219,13 +16198,13 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G403" t="s">
-        <v>1721</v>
+        <v>1714</v>
       </c>
       <c r="H403" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16245,13 +16224,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1382</v>
+        <v>1439</v>
       </c>
       <c r="G404" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="H404" t="s">
-        <v>1789</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16271,13 +16250,13 @@
         <v>1293</v>
       </c>
       <c r="F405" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G405" t="s">
         <v>1228</v>
       </c>
       <c r="H405" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16303,7 +16282,7 @@
         <v>1228</v>
       </c>
       <c r="H406" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16323,13 +16302,13 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1386</v>
+        <v>1359</v>
       </c>
       <c r="G407" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
       <c r="H407" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16349,13 +16328,13 @@
         <v>1278</v>
       </c>
       <c r="F408" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G408" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="H408" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16375,13 +16354,13 @@
         <v>1324</v>
       </c>
       <c r="F409" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="G409" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="H409" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16407,7 +16386,7 @@
         <v>1093</v>
       </c>
       <c r="H410" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16427,13 +16406,13 @@
         <v>1293</v>
       </c>
       <c r="F411" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="G411" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="H411" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16456,10 +16435,10 @@
         <v>1284</v>
       </c>
       <c r="G412" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="H412" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16479,13 +16458,13 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G413" t="s">
         <v>972</v>
       </c>
       <c r="H413" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16505,13 +16484,13 @@
         <v>1284</v>
       </c>
       <c r="F414" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G414" t="s">
         <v>1235</v>
       </c>
       <c r="H414" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16531,13 +16510,13 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="G415" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="H415" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16557,13 +16536,13 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="G416" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="H416" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16583,13 +16562,13 @@
         <v>1311</v>
       </c>
       <c r="F417" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="G417" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="H417" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16609,13 +16588,13 @@
         <v>1284</v>
       </c>
       <c r="F418" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="G418" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="H418" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16638,10 +16617,10 @@
         <v>1387</v>
       </c>
       <c r="G419" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="H419" t="s">
-        <v>1790</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16664,10 +16643,10 @@
         <v>1284</v>
       </c>
       <c r="G420" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="H420" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16687,13 +16666,13 @@
         <v>1284</v>
       </c>
       <c r="F421" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G421" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
       <c r="H421" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16713,13 +16692,13 @@
         <v>1330</v>
       </c>
       <c r="F422" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="G422" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="H422" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16739,13 +16718,13 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="G423" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="H423" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16765,13 +16744,13 @@
         <v>1284</v>
       </c>
       <c r="F424" t="s">
-        <v>1446</v>
+        <v>1359</v>
       </c>
       <c r="G424" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="H424" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16791,13 +16770,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1386</v>
+        <v>1359</v>
       </c>
       <c r="G425" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="H425" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16817,13 +16796,13 @@
         <v>1285</v>
       </c>
       <c r="F426" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="G426" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="H426" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16849,7 +16828,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16875,7 +16854,7 @@
         <v>1246</v>
       </c>
       <c r="H428" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16895,13 +16874,13 @@
         <v>1297</v>
       </c>
       <c r="F429" t="s">
-        <v>1386</v>
+        <v>1359</v>
       </c>
       <c r="G429" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="H429" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16921,13 +16900,13 @@
         <v>1329</v>
       </c>
       <c r="F430" t="s">
-        <v>1447</v>
+        <v>1364</v>
       </c>
       <c r="G430" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="H430" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16953,7 +16932,7 @@
         <v>1119</v>
       </c>
       <c r="H431" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16976,10 +16955,10 @@
         <v>1293</v>
       </c>
       <c r="G432" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="H432" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16999,13 +16978,13 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1381</v>
+        <v>1352</v>
       </c>
       <c r="G433" t="s">
-        <v>1735</v>
+        <v>1728</v>
       </c>
       <c r="H433" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17028,10 +17007,10 @@
         <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="H434" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17051,13 +17030,13 @@
         <v>1296</v>
       </c>
       <c r="F435" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G435" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="H435" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17083,7 +17062,7 @@
         <v>1093</v>
       </c>
       <c r="H436" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17103,13 +17082,13 @@
         <v>1293</v>
       </c>
       <c r="F437" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="G437" t="s">
-        <v>1738</v>
+        <v>1731</v>
       </c>
       <c r="H437" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17129,13 +17108,13 @@
         <v>1293</v>
       </c>
       <c r="F438" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G438" t="s">
-        <v>1739</v>
+        <v>1732</v>
       </c>
       <c r="H438" t="s">
-        <v>1787</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17155,13 +17134,13 @@
         <v>1284</v>
       </c>
       <c r="F439" t="s">
-        <v>1449</v>
+        <v>1403</v>
       </c>
       <c r="G439" t="s">
-        <v>1740</v>
+        <v>1733</v>
       </c>
       <c r="H439" t="s">
-        <v>1778</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17187,7 +17166,7 @@
         <v>952</v>
       </c>
       <c r="H440" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17207,13 +17186,13 @@
         <v>1293</v>
       </c>
       <c r="F441" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="G441" t="s">
-        <v>1735</v>
+        <v>1728</v>
       </c>
       <c r="H441" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17239,7 +17218,7 @@
         <v>1093</v>
       </c>
       <c r="H442" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17262,10 +17241,10 @@
         <v>1277</v>
       </c>
       <c r="G443" t="s">
-        <v>1741</v>
+        <v>1734</v>
       </c>
       <c r="H443" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17285,13 +17264,13 @@
         <v>1278</v>
       </c>
       <c r="F444" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G444" t="s">
-        <v>1742</v>
+        <v>1735</v>
       </c>
       <c r="H444" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17311,13 +17290,13 @@
         <v>1278</v>
       </c>
       <c r="F445" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="G445" t="s">
-        <v>1743</v>
+        <v>1736</v>
       </c>
       <c r="H445" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17337,13 +17316,13 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="G446" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="H446" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17363,13 +17342,13 @@
         <v>1293</v>
       </c>
       <c r="F447" t="s">
-        <v>1446</v>
+        <v>1349</v>
       </c>
       <c r="G447" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="H447" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17389,13 +17368,13 @@
         <v>1278</v>
       </c>
       <c r="F448" t="s">
-        <v>1348</v>
+        <v>1378</v>
       </c>
       <c r="G448" t="s">
-        <v>1746</v>
+        <v>1739</v>
       </c>
       <c r="H448" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17415,13 +17394,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="G449" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="H449" t="s">
-        <v>1792</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17444,10 +17423,10 @@
         <v>1339</v>
       </c>
       <c r="G450" t="s">
-        <v>1513</v>
+        <v>1506</v>
       </c>
       <c r="H450" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17470,10 +17449,10 @@
         <v>1293</v>
       </c>
       <c r="G451" t="s">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="H451" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17496,10 +17475,10 @@
         <v>1339</v>
       </c>
       <c r="G452" t="s">
-        <v>1749</v>
+        <v>1742</v>
       </c>
       <c r="H452" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17519,13 +17498,13 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1339</v>
+        <v>1371</v>
       </c>
       <c r="G453" t="s">
-        <v>1750</v>
+        <v>1743</v>
       </c>
       <c r="H453" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17551,7 +17530,7 @@
         <v>1004</v>
       </c>
       <c r="H454" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17571,13 +17550,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1452</v>
+        <v>1421</v>
       </c>
       <c r="G455" t="s">
-        <v>1751</v>
+        <v>1744</v>
       </c>
       <c r="H455" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17600,10 +17579,10 @@
         <v>1341</v>
       </c>
       <c r="G456" t="s">
-        <v>1752</v>
+        <v>1745</v>
       </c>
       <c r="H456" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17623,13 +17602,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="G457" t="s">
-        <v>1753</v>
+        <v>1746</v>
       </c>
       <c r="H457" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17649,13 +17628,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="G458" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
       <c r="H458" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17675,13 +17654,13 @@
         <v>1278</v>
       </c>
       <c r="F459" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G459" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
       <c r="H459" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17707,7 +17686,7 @@
         <v>1119</v>
       </c>
       <c r="H460" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17727,13 +17706,13 @@
         <v>1293</v>
       </c>
       <c r="F461" t="s">
-        <v>1362</v>
+        <v>1420</v>
       </c>
       <c r="G461" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="H461" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17759,7 +17738,7 @@
         <v>952</v>
       </c>
       <c r="H462" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17779,13 +17758,13 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1423</v>
+        <v>1377</v>
       </c>
       <c r="G463" t="s">
-        <v>1757</v>
+        <v>1750</v>
       </c>
       <c r="H463" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17811,7 +17790,7 @@
         <v>972</v>
       </c>
       <c r="H464" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17831,13 +17810,13 @@
         <v>1335</v>
       </c>
       <c r="F465" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="G465" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="H465" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
